--- a/biology/Zoologie/Bucarde_tuberculée/Bucarde_tuberculée.xlsx
+++ b/biology/Zoologie/Bucarde_tuberculée/Bucarde_tuberculée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bucarde_tubercul%C3%A9e</t>
+          <t>Bucarde_tuberculée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthocardia tuberculata
 La bucarde tuberculée (Acanthocardia tuberculata) est une espèce de mollusques bivalves de la famille des coques.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bucarde_tubercul%C3%A9e</t>
+          <t>Bucarde_tuberculée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle mesure jusqu'à 7 cm de diamètre.
 Valve droite et gauche du même spécimen:
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bucarde_tubercul%C3%A9e</t>
+          <t>Bucarde_tuberculée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est présente en Méditerranée,  en mer Noire, dans le nord-est de l'Atlantique, dans la Manche, la mer du Nord, ainsi que dans quelques zones de la mer Baltique[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est présente en Méditerranée,  en mer Noire, dans le nord-est de l'Atlantique, dans la Manche, la mer du Nord, ainsi que dans quelques zones de la mer Baltique.
 Elle vit enfouie dans le sable à environ 10 cm de profondeur, dans des endroits où il reste toujours un peu d'eau, souvent sur la pente qui descend vers le plus profond.
 </t>
         </is>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bucarde_tubercul%C3%A9e</t>
+          <t>Bucarde_tuberculée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,18 +596,93 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Autres noms communs français
-Bucarde, coque tuberculée, bucarde à verrues, langue rouge[2].
-Noms communs internationaux
-(en) Tuberculate cockle, rough cockle ; (es) Corruco ; (nl) Fossiele hartschelp, geknobbelde hartschelp, karthageense hartschelp ; (de) Knotige Hermuschel, Dickrippige Herzmuschel[2].
-Autres noms scientifiques
-Noms parfois utilisés mais non valides : 
+          <t>Autres noms communs français</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bucarde, coque tuberculée, bucarde à verrues, langue rouge.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bucarde_tuberculée</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bucarde_tubercul%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Noms communs internationaux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Tuberculate cockle, rough cockle ; (es) Corruco ; (nl) Fossiele hartschelp, geknobbelde hartschelp, karthageense hartschelp ; (de) Knotige Hermuschel, Dickrippige Herzmuschel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bucarde_tuberculée</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bucarde_tubercul%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres noms scientifiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Noms parfois utilisés mais non valides : 
 Cardium tuberculatum Linnaeus, 1758
 Eucardium (Rudicardium) tuberculatum (Linnaeus, 1758)
 Cardium rusticum Linnaeus, 1767
 Cardium fasciatum Gmelin, 1791
 Cardium nodosum Montagu,1803
-Acanthocardia impedita Milaschewitch, 1909[2].</t>
+Acanthocardia impedita Milaschewitch, 1909.</t>
         </is>
       </c>
     </row>
